--- a/bin/testcases.xlsx
+++ b/bin/testcases.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\covid\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538D1FDA-84A0-49D3-9374-4B2480F5C879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30785A0-3EA0-414D-B735-77464A86A674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3450" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>dob</t>
   </si>
@@ -316,16 +316,12 @@
   </si>
   <si>
     <t>Declined</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -665,17 +661,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" style="4" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="5" max="8" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="12.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="2" width="8.85546875" style="4" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="12.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -795,12 +791,6 @@
       <c r="R2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -857,12 +847,6 @@
       <c r="R3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S3" t="s">
-        <v>94</v>
-      </c>
-      <c r="T3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -916,12 +900,6 @@
       <c r="R4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -974,12 +952,6 @@
       <c r="R5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S5" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1030,12 +1002,6 @@
       <c r="R6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1086,12 +1052,6 @@
       <c r="R7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S7" t="s">
-        <v>94</v>
-      </c>
-      <c r="T7" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1144,12 +1104,6 @@
       </c>
       <c r="R8" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="S8" t="s">
-        <v>94</v>
-      </c>
-      <c r="T8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
